--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -29,34 +29,34 @@
     <t>isbn</t>
   </si>
   <si>
-    <t>9781337629294</t>
-  </si>
-  <si>
-    <t>9781133711971</t>
-  </si>
-  <si>
-    <t>9781133050001</t>
-  </si>
-  <si>
-    <t>9781111841768</t>
-  </si>
-  <si>
-    <t>9781337519960</t>
-  </si>
-  <si>
-    <t>9781133950134</t>
-  </si>
-  <si>
-    <t>9781337688994</t>
-  </si>
-  <si>
-    <t>9781133279037</t>
-  </si>
-  <si>
-    <t>9781305657465</t>
-  </si>
-  <si>
-    <t>9781133387794</t>
+    <t>9781305949720</t>
+  </si>
+  <si>
+    <t>9781305960572</t>
+  </si>
+  <si>
+    <t>9781133962458</t>
+  </si>
+  <si>
+    <t>9781133364405</t>
+  </si>
+  <si>
+    <t>9781133957553</t>
+  </si>
+  <si>
+    <t>9781111309787</t>
+  </si>
+  <si>
+    <t>9781305094178</t>
+  </si>
+  <si>
+    <t>9780538798082</t>
+  </si>
+  <si>
+    <t>9781305279131</t>
+  </si>
+  <si>
+    <t>9781435462397</t>
   </si>
 </sst>
 </file>
@@ -125,14 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -431,56 +430,53 @@
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -24,39 +24,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>9781305949720</t>
-  </si>
-  <si>
-    <t>9781305960572</t>
-  </si>
-  <si>
-    <t>9781133962458</t>
-  </si>
-  <si>
-    <t>9781133364405</t>
-  </si>
-  <si>
-    <t>9781133957553</t>
-  </si>
-  <si>
-    <t>9781111309787</t>
-  </si>
-  <si>
-    <t>9781305094178</t>
-  </si>
-  <si>
-    <t>9780538798082</t>
-  </si>
-  <si>
-    <t>9781305279131</t>
-  </si>
-  <si>
-    <t>9781435462397</t>
+    <t>9781319000691</t>
+  </si>
+  <si>
+    <t>9781319010164</t>
+  </si>
+  <si>
+    <t>9781319040369</t>
+  </si>
+  <si>
+    <t>9781319040390</t>
+  </si>
+  <si>
+    <t>9781319050610</t>
+  </si>
+  <si>
+    <t>9781319068011</t>
+  </si>
+  <si>
+    <t>9781319068042</t>
+  </si>
+  <si>
+    <t>9781319095734</t>
+  </si>
+  <si>
+    <t>9781319098728</t>
+  </si>
+  <si>
+    <t>9781319098759</t>
+  </si>
+  <si>
+    <t>9781319108731</t>
+  </si>
+  <si>
+    <t>9781319120054</t>
+  </si>
+  <si>
+    <t>9781319135904</t>
+  </si>
+  <si>
+    <t>9781319135928</t>
+  </si>
+  <si>
+    <t>9781319135959</t>
+  </si>
+  <si>
+    <t>9781319136024</t>
+  </si>
+  <si>
+    <t>9781319147556</t>
+  </si>
+  <si>
+    <t>9781319151058</t>
+  </si>
+  <si>
+    <t>9781319151065</t>
+  </si>
+  <si>
+    <t>9781319151072</t>
+  </si>
+  <si>
+    <t>9781319156220</t>
+  </si>
+  <si>
+    <t>9781319167622</t>
+  </si>
+  <si>
+    <t>9781319170479</t>
+  </si>
+  <si>
+    <t>9781319172695</t>
+  </si>
+  <si>
+    <t>9781319172718</t>
+  </si>
+  <si>
+    <t>9781319181857</t>
+  </si>
+  <si>
+    <t>9781319188597</t>
+  </si>
+  <si>
+    <t>9781319188665</t>
+  </si>
+  <si>
+    <t>9781319188702</t>
+  </si>
+  <si>
+    <t>9781319195427</t>
+  </si>
+  <si>
+    <t>9781319195557</t>
+  </si>
+  <si>
+    <t>9781319197872</t>
+  </si>
+  <si>
+    <t>9781319198077</t>
+  </si>
+  <si>
+    <t>9781319207083</t>
+  </si>
+  <si>
+    <t>9781319207151</t>
+  </si>
+  <si>
+    <t>9781319208684</t>
+  </si>
+  <si>
+    <t>9781319218720</t>
+  </si>
+  <si>
+    <t>9781319219352</t>
+  </si>
+  <si>
+    <t>9781457623943</t>
+  </si>
+  <si>
+    <t>9781457628405</t>
+  </si>
+  <si>
+    <t>9781457649448</t>
+  </si>
+  <si>
+    <t>9781457665394</t>
+  </si>
+  <si>
+    <t>9781457665400</t>
+  </si>
+  <si>
+    <t>9781457665486</t>
+  </si>
+  <si>
+    <t>9781457678592</t>
+  </si>
+  <si>
+    <t>9781457678608</t>
+  </si>
+  <si>
+    <t>9781457678615</t>
+  </si>
+  <si>
+    <t>9781457678622</t>
+  </si>
+  <si>
+    <t>9781457678653</t>
+  </si>
+  <si>
+    <t>9781457686757</t>
+  </si>
+  <si>
+    <t>9781457690730</t>
+  </si>
+  <si>
+    <t>9781457696244</t>
+  </si>
+  <si>
+    <t>9781457699740</t>
   </si>
 </sst>
 </file>
@@ -412,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,6 +607,221 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,39 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>9780538798082</t>
-  </si>
-  <si>
-    <t>9781305949720</t>
-  </si>
-  <si>
-    <t>9781305960572</t>
-  </si>
-  <si>
-    <t>9781133962458</t>
-  </si>
-  <si>
-    <t>9781133364405</t>
-  </si>
-  <si>
-    <t>9781133957553</t>
-  </si>
-  <si>
-    <t>9781111309787</t>
-  </si>
-  <si>
-    <t>9781305094178</t>
-  </si>
-  <si>
-    <t>9781305279131</t>
-  </si>
-  <si>
-    <t>9781435462397</t>
+    <t>9781305687608</t>
   </si>
 </sst>
 </file>
@@ -392,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -410,52 +383,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -24,12 +24,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>9781305687608</t>
+    <t>9781111726171</t>
+  </si>
+  <si>
+    <t>9781111301491</t>
+  </si>
+  <si>
+    <t>9780324782196</t>
+  </si>
+  <si>
+    <t>9781337395212</t>
+  </si>
+  <si>
+    <t>9781111578473</t>
+  </si>
+  <si>
+    <t>9781111539931</t>
+  </si>
+  <si>
+    <t>9781305266544</t>
+  </si>
+  <si>
+    <t>9781133603016</t>
+  </si>
+  <si>
+    <t>9781305279148</t>
+  </si>
+  <si>
+    <t>9781435441651</t>
+  </si>
+  <si>
+    <t>9781285864242</t>
+  </si>
+  <si>
+    <t>9781111307752</t>
+  </si>
+  <si>
+    <t>9781133112198</t>
+  </si>
+  <si>
+    <t>9781285866260</t>
+  </si>
+  <si>
+    <t>9781111836931</t>
+  </si>
+  <si>
+    <t>9781285420172</t>
+  </si>
+  <si>
+    <t>9781435487406</t>
+  </si>
+  <si>
+    <t>9781285067674</t>
+  </si>
+  <si>
+    <t>9781285092355</t>
+  </si>
+  <si>
+    <t>9780538733908</t>
+  </si>
+  <si>
+    <t>9781285866253</t>
+  </si>
+  <si>
+    <t>9781133600589</t>
+  </si>
+  <si>
+    <t>9781111307424</t>
+  </si>
+  <si>
+    <t>9781133108528</t>
+  </si>
+  <si>
+    <t>9781285052571</t>
+  </si>
+  <si>
+    <t>9781111990411</t>
+  </si>
+  <si>
+    <t>9781285420745</t>
+  </si>
+  <si>
+    <t>9781133132400</t>
+  </si>
+  <si>
+    <t>9781285098180</t>
+  </si>
+  <si>
+    <t>9780840049452</t>
+  </si>
+  <si>
+    <t>9781285417271</t>
+  </si>
+  <si>
+    <t>9781285420516</t>
+  </si>
+  <si>
+    <t>9781111990459</t>
+  </si>
+  <si>
+    <t>9781133604488</t>
+  </si>
+  <si>
+    <t>9781133604433</t>
+  </si>
+  <si>
+    <t>9780495560647</t>
+  </si>
+  <si>
+    <t>9780547213095</t>
+  </si>
+  <si>
+    <t>9781285062020</t>
+  </si>
+  <si>
+    <t>9781305095250</t>
+  </si>
+  <si>
+    <t>9781285422909</t>
+  </si>
+  <si>
+    <t>9781133949626</t>
+  </si>
+  <si>
+    <t>9780495558347</t>
+  </si>
+  <si>
+    <t>9781111428242</t>
+  </si>
+  <si>
+    <t>9781285059372</t>
+  </si>
+  <si>
+    <t>9781133611998</t>
+  </si>
+  <si>
+    <t>9781428311503</t>
+  </si>
+  <si>
+    <t>9781133105411</t>
+  </si>
+  <si>
+    <t>9781133934073</t>
+  </si>
+  <si>
+    <t>9781133947219</t>
+  </si>
+  <si>
+    <t>9781285419749</t>
   </si>
 </sst>
 </file>
@@ -365,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -386,6 +533,251 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -24,159 +24,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>isbn</t>
   </si>
   <si>
-    <t>9781111726171</t>
-  </si>
-  <si>
-    <t>9781111301491</t>
-  </si>
-  <si>
-    <t>9780324782196</t>
-  </si>
-  <si>
-    <t>9781337395212</t>
-  </si>
-  <si>
-    <t>9781111578473</t>
-  </si>
-  <si>
-    <t>9781111539931</t>
-  </si>
-  <si>
-    <t>9781305266544</t>
-  </si>
-  <si>
-    <t>9781133603016</t>
-  </si>
-  <si>
-    <t>9781305279148</t>
-  </si>
-  <si>
-    <t>9781435441651</t>
-  </si>
-  <si>
-    <t>9781285864242</t>
-  </si>
-  <si>
-    <t>9781111307752</t>
-  </si>
-  <si>
-    <t>9781133112198</t>
-  </si>
-  <si>
-    <t>9781285866260</t>
-  </si>
-  <si>
-    <t>9781111836931</t>
-  </si>
-  <si>
-    <t>9781285420172</t>
-  </si>
-  <si>
-    <t>9781435487406</t>
-  </si>
-  <si>
-    <t>9781285067674</t>
-  </si>
-  <si>
-    <t>9781285092355</t>
-  </si>
-  <si>
-    <t>9780538733908</t>
-  </si>
-  <si>
-    <t>9781285866253</t>
-  </si>
-  <si>
-    <t>9781133600589</t>
-  </si>
-  <si>
-    <t>9781111307424</t>
-  </si>
-  <si>
-    <t>9781133108528</t>
-  </si>
-  <si>
-    <t>9781285052571</t>
-  </si>
-  <si>
-    <t>9781111990411</t>
-  </si>
-  <si>
-    <t>9781285420745</t>
-  </si>
-  <si>
-    <t>9781133132400</t>
-  </si>
-  <si>
-    <t>9781285098180</t>
-  </si>
-  <si>
-    <t>9780840049452</t>
-  </si>
-  <si>
-    <t>9781285417271</t>
-  </si>
-  <si>
-    <t>9781285420516</t>
-  </si>
-  <si>
-    <t>9781111990459</t>
-  </si>
-  <si>
-    <t>9781133604488</t>
-  </si>
-  <si>
-    <t>9781133604433</t>
-  </si>
-  <si>
-    <t>9780495560647</t>
-  </si>
-  <si>
-    <t>9780547213095</t>
-  </si>
-  <si>
-    <t>9781285062020</t>
-  </si>
-  <si>
-    <t>9781305095250</t>
-  </si>
-  <si>
-    <t>9781285422909</t>
-  </si>
-  <si>
-    <t>9781133949626</t>
-  </si>
-  <si>
-    <t>9780495558347</t>
-  </si>
-  <si>
-    <t>9781111428242</t>
-  </si>
-  <si>
-    <t>9781285059372</t>
-  </si>
-  <si>
-    <t>9781133611998</t>
-  </si>
-  <si>
-    <t>9781428311503</t>
-  </si>
-  <si>
-    <t>9781133105411</t>
-  </si>
-  <si>
-    <t>9781133934073</t>
-  </si>
-  <si>
-    <t>9781133947219</t>
-  </si>
-  <si>
-    <t>9781285419749</t>
+    <t>9781337517324</t>
+  </si>
+  <si>
+    <t>9781305804432</t>
+  </si>
+  <si>
+    <t>9781285545950</t>
+  </si>
+  <si>
+    <t>9781285530147</t>
+  </si>
+  <si>
+    <t>9781337671392</t>
+  </si>
+  <si>
+    <t>9781337672184</t>
+  </si>
+  <si>
+    <t>9781337519960</t>
+  </si>
+  <si>
+    <t>9781133387794</t>
+  </si>
+  <si>
+    <t>9781285400594</t>
+  </si>
+  <si>
+    <t>9781337345842</t>
+  </si>
+  <si>
+    <t>9781337520386</t>
+  </si>
+  <si>
+    <t>9780495926894</t>
+  </si>
+  <si>
+    <t>9781133594543</t>
+  </si>
+  <si>
+    <t>9781133595373</t>
+  </si>
+  <si>
+    <t>9781133595397</t>
+  </si>
+  <si>
+    <t>9781133595403</t>
+  </si>
+  <si>
+    <t>9781133601326</t>
+  </si>
+  <si>
+    <t>9781133601333</t>
+  </si>
+  <si>
+    <t>9781133601340</t>
+  </si>
+  <si>
+    <t>9781133602323</t>
+  </si>
+  <si>
+    <t>9781133602354</t>
+  </si>
+  <si>
+    <t>9780495801443</t>
+  </si>
+  <si>
+    <t>9781435497566</t>
+  </si>
+  <si>
+    <t>9781435497054</t>
+  </si>
+  <si>
+    <t>9781439084403</t>
+  </si>
+  <si>
+    <t>9781439059173</t>
+  </si>
+  <si>
+    <t>9780840052025</t>
+  </si>
+  <si>
+    <t>9780840048752</t>
+  </si>
+  <si>
+    <t>9780495915119</t>
+  </si>
+  <si>
+    <t>9780840056306</t>
+  </si>
+  <si>
+    <t>9780840057525</t>
   </si>
 </sst>
 </file>
@@ -512,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A51"/>
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,101 +626,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -24,102 +24,399 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>isbn</t>
-  </si>
-  <si>
-    <t>9781337517324</t>
-  </si>
-  <si>
-    <t>9781305804432</t>
-  </si>
-  <si>
-    <t>9781285545950</t>
-  </si>
-  <si>
-    <t>9781285530147</t>
-  </si>
-  <si>
-    <t>9781337671392</t>
-  </si>
-  <si>
-    <t>9781337672184</t>
-  </si>
-  <si>
-    <t>9781337519960</t>
-  </si>
-  <si>
-    <t>9781133387794</t>
-  </si>
-  <si>
-    <t>9781285400594</t>
-  </si>
-  <si>
-    <t>9781337345842</t>
-  </si>
-  <si>
-    <t>9781337520386</t>
-  </si>
-  <si>
-    <t>9780495926894</t>
-  </si>
-  <si>
-    <t>9781133594543</t>
-  </si>
-  <si>
-    <t>9781133595373</t>
-  </si>
-  <si>
-    <t>9781133595397</t>
-  </si>
-  <si>
-    <t>9781133595403</t>
-  </si>
-  <si>
-    <t>9781133601326</t>
-  </si>
-  <si>
-    <t>9781133601333</t>
-  </si>
-  <si>
-    <t>9781133601340</t>
-  </si>
-  <si>
-    <t>9781133602323</t>
-  </si>
-  <si>
-    <t>9781133602354</t>
-  </si>
-  <si>
-    <t>9780495801443</t>
-  </si>
-  <si>
-    <t>9781435497566</t>
-  </si>
-  <si>
-    <t>9781435497054</t>
-  </si>
-  <si>
-    <t>9781439084403</t>
-  </si>
-  <si>
-    <t>9781439059173</t>
-  </si>
-  <si>
-    <t>9780840052025</t>
-  </si>
-  <si>
-    <t>9780840048752</t>
-  </si>
-  <si>
-    <t>9780495915119</t>
-  </si>
-  <si>
-    <t>9780840056306</t>
-  </si>
-  <si>
-    <t>9780840057525</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+  <si>
+    <t>9780132744393</t>
+  </si>
+  <si>
+    <t>9780132771863</t>
+  </si>
+  <si>
+    <t>9780132789516</t>
+  </si>
+  <si>
+    <t>9780132807180</t>
+  </si>
+  <si>
+    <t>9780132843232</t>
+  </si>
+  <si>
+    <t>9780133142662</t>
+  </si>
+  <si>
+    <t>9780133142679</t>
+  </si>
+  <si>
+    <t>9780133349788</t>
+  </si>
+  <si>
+    <t>9780133412123</t>
+  </si>
+  <si>
+    <t>9780133506327</t>
+  </si>
+  <si>
+    <t>9780133507690</t>
+  </si>
+  <si>
+    <t>9780133546408</t>
+  </si>
+  <si>
+    <t>9780133563979</t>
+  </si>
+  <si>
+    <t>9780133578164</t>
+  </si>
+  <si>
+    <t>9780133591217</t>
+  </si>
+  <si>
+    <t>9780133769395</t>
+  </si>
+  <si>
+    <t>9780133805628</t>
+  </si>
+  <si>
+    <t>9780133848809</t>
+  </si>
+  <si>
+    <t>9780133866292</t>
+  </si>
+  <si>
+    <t>9780133872279</t>
+  </si>
+  <si>
+    <t>9780133896787</t>
+  </si>
+  <si>
+    <t>9780133973310</t>
+  </si>
+  <si>
+    <t>9780133994612</t>
+  </si>
+  <si>
+    <t>9780134004006</t>
+  </si>
+  <si>
+    <t>9780134020655</t>
+  </si>
+  <si>
+    <t>9780134061641</t>
+  </si>
+  <si>
+    <t>9780134103051</t>
+  </si>
+  <si>
+    <t>9780135000489</t>
+  </si>
+  <si>
+    <t>9780205152902</t>
+  </si>
+  <si>
+    <t>9780205255405</t>
+  </si>
+  <si>
+    <t>9780205258154</t>
+  </si>
+  <si>
+    <t>9780205393923</t>
+  </si>
+  <si>
+    <t>9780205909025</t>
+  </si>
+  <si>
+    <t>9780205988006</t>
+  </si>
+  <si>
+    <t>9780205990290</t>
+  </si>
+  <si>
+    <t>9780321625922</t>
+  </si>
+  <si>
+    <t>9780321885326</t>
+  </si>
+  <si>
+    <t>9780321967466</t>
+  </si>
+  <si>
+    <t>9780321979070</t>
+  </si>
+  <si>
+    <t>9780321980151</t>
+  </si>
+  <si>
+    <t>9780324560701</t>
+  </si>
+  <si>
+    <t>9780471251088</t>
+  </si>
+  <si>
+    <t>9780495569404</t>
+  </si>
+  <si>
+    <t>9780495601333</t>
+  </si>
+  <si>
+    <t>9780495601883</t>
+  </si>
+  <si>
+    <t>9780495802051</t>
+  </si>
+  <si>
+    <t>9780495903369</t>
+  </si>
+  <si>
+    <t>9780495905530</t>
+  </si>
+  <si>
+    <t>9780538478977</t>
+  </si>
+  <si>
+    <t>9780538735391</t>
+  </si>
+  <si>
+    <t>9780538738040</t>
+  </si>
+  <si>
+    <t>9780538738217</t>
+  </si>
+  <si>
+    <t>9780538738415</t>
+  </si>
+  <si>
+    <t>9780538741347</t>
+  </si>
+  <si>
+    <t>9780538798082</t>
+  </si>
+  <si>
+    <t>9781111130305</t>
+  </si>
+  <si>
+    <t>9781111343620</t>
+  </si>
+  <si>
+    <t>9781111349530</t>
+  </si>
+  <si>
+    <t>9781111529505</t>
+  </si>
+  <si>
+    <t>9781111543556</t>
+  </si>
+  <si>
+    <t>9781111726201</t>
+  </si>
+  <si>
+    <t>9781111821753</t>
+  </si>
+  <si>
+    <t>9781111822217</t>
+  </si>
+  <si>
+    <t>9781111826116</t>
+  </si>
+  <si>
+    <t>9781111826697</t>
+  </si>
+  <si>
+    <t>9781111834487</t>
+  </si>
+  <si>
+    <t>9781111836986</t>
+  </si>
+  <si>
+    <t>9781111841935</t>
+  </si>
+  <si>
+    <t>9781111970611</t>
+  </si>
+  <si>
+    <t>9781118133576</t>
+  </si>
+  <si>
+    <t>9781118324059</t>
+  </si>
+  <si>
+    <t>9781119941880</t>
+  </si>
+  <si>
+    <t>9781133016656</t>
+  </si>
+  <si>
+    <t>9781133188322</t>
+  </si>
+  <si>
+    <t>9781133191193</t>
+  </si>
+  <si>
+    <t>9781133308911</t>
+  </si>
+  <si>
+    <t>9781133526858</t>
+  </si>
+  <si>
+    <t>9781133594987</t>
+  </si>
+  <si>
+    <t>9781133604518</t>
+  </si>
+  <si>
+    <t>9781133691662</t>
+  </si>
+  <si>
+    <t>9781285077055</t>
+  </si>
+  <si>
+    <t>9781285091860</t>
+  </si>
+  <si>
+    <t>9781285164724</t>
+  </si>
+  <si>
+    <t>9781285173221</t>
+  </si>
+  <si>
+    <t>9781285180984</t>
+  </si>
+  <si>
+    <t>9781285187556</t>
+  </si>
+  <si>
+    <t>9781285194325</t>
+  </si>
+  <si>
+    <t>9781285431642</t>
+  </si>
+  <si>
+    <t>9781285434544</t>
+  </si>
+  <si>
+    <t>9781285445588</t>
+  </si>
+  <si>
+    <t>9781285451374</t>
+  </si>
+  <si>
+    <t>9781285775296</t>
+  </si>
+  <si>
+    <t>9781285836454</t>
+  </si>
+  <si>
+    <t>9781285860398</t>
+  </si>
+  <si>
+    <t>9781285870298</t>
+  </si>
+  <si>
+    <t>9781305091924</t>
+  </si>
+  <si>
+    <t>9781305094550</t>
+  </si>
+  <si>
+    <t>9781305253285</t>
+  </si>
+  <si>
+    <t>9781305254855</t>
+  </si>
+  <si>
+    <t>9781305263727</t>
+  </si>
+  <si>
+    <t>9781305397477</t>
+  </si>
+  <si>
+    <t>9781305401648</t>
+  </si>
+  <si>
+    <t>9781305632004</t>
+  </si>
+  <si>
+    <t>9781305652545</t>
+  </si>
+  <si>
+    <t>9781305657458</t>
+  </si>
+  <si>
+    <t>9781305657465</t>
+  </si>
+  <si>
+    <t>9781305659582</t>
+  </si>
+  <si>
+    <t>9781305660625</t>
+  </si>
+  <si>
+    <t>9781305661653</t>
+  </si>
+  <si>
+    <t>9781305663183</t>
+  </si>
+  <si>
+    <t>9781305663626</t>
+  </si>
+  <si>
+    <t>9781305949706</t>
+  </si>
+  <si>
+    <t>9781305970953</t>
+  </si>
+  <si>
+    <t>9781305971776</t>
+  </si>
+  <si>
+    <t>9781337093347</t>
+  </si>
+  <si>
+    <t>9781337099974</t>
+  </si>
+  <si>
+    <t>9781337101929</t>
+  </si>
+  <si>
+    <t>9781337568784</t>
+  </si>
+  <si>
+    <t>9781418073893</t>
+  </si>
+  <si>
+    <t>9781429278416</t>
+  </si>
+  <si>
+    <t>9781435458956</t>
+  </si>
+  <si>
+    <t>9781435482098</t>
+  </si>
+  <si>
+    <t>9781435483491</t>
+  </si>
+  <si>
+    <t>9781435483507</t>
+  </si>
+  <si>
+    <t>9781435483514</t>
+  </si>
+  <si>
+    <t>9781435483521</t>
+  </si>
+  <si>
+    <t>9781435483538</t>
+  </si>
+  <si>
+    <t>9781439047026</t>
+  </si>
+  <si>
+    <t>9781439084120</t>
+  </si>
+  <si>
+    <t>9781464143878</t>
+  </si>
+  <si>
+    <t>9781464182891</t>
   </si>
 </sst>
 </file>
@@ -143,18 +440,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,11 +460,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -455,15 +743,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -472,158 +760,653 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -24,399 +24,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
-  <si>
-    <t>9780132744393</t>
-  </si>
-  <si>
-    <t>9780132771863</t>
-  </si>
-  <si>
-    <t>9780132789516</t>
-  </si>
-  <si>
-    <t>9780132807180</t>
-  </si>
-  <si>
-    <t>9780132843232</t>
-  </si>
-  <si>
-    <t>9780133142662</t>
-  </si>
-  <si>
-    <t>9780133142679</t>
-  </si>
-  <si>
-    <t>9780133349788</t>
-  </si>
-  <si>
-    <t>9780133412123</t>
-  </si>
-  <si>
-    <t>9780133506327</t>
-  </si>
-  <si>
-    <t>9780133507690</t>
-  </si>
-  <si>
-    <t>9780133546408</t>
-  </si>
-  <si>
-    <t>9780133563979</t>
-  </si>
-  <si>
-    <t>9780133578164</t>
-  </si>
-  <si>
-    <t>9780133591217</t>
-  </si>
-  <si>
-    <t>9780133769395</t>
-  </si>
-  <si>
-    <t>9780133805628</t>
-  </si>
-  <si>
-    <t>9780133848809</t>
-  </si>
-  <si>
-    <t>9780133866292</t>
-  </si>
-  <si>
-    <t>9780133872279</t>
-  </si>
-  <si>
-    <t>9780133896787</t>
-  </si>
-  <si>
-    <t>9780133973310</t>
-  </si>
-  <si>
-    <t>9780133994612</t>
-  </si>
-  <si>
-    <t>9780134004006</t>
-  </si>
-  <si>
-    <t>9780134020655</t>
-  </si>
-  <si>
-    <t>9780134061641</t>
-  </si>
-  <si>
-    <t>9780134103051</t>
-  </si>
-  <si>
-    <t>9780135000489</t>
-  </si>
-  <si>
-    <t>9780205152902</t>
-  </si>
-  <si>
-    <t>9780205255405</t>
-  </si>
-  <si>
-    <t>9780205258154</t>
-  </si>
-  <si>
-    <t>9780205393923</t>
-  </si>
-  <si>
-    <t>9780205909025</t>
-  </si>
-  <si>
-    <t>9780205988006</t>
-  </si>
-  <si>
-    <t>9780205990290</t>
-  </si>
-  <si>
-    <t>9780321625922</t>
-  </si>
-  <si>
-    <t>9780321885326</t>
-  </si>
-  <si>
-    <t>9780321967466</t>
-  </si>
-  <si>
-    <t>9780321979070</t>
-  </si>
-  <si>
-    <t>9780321980151</t>
-  </si>
-  <si>
-    <t>9780324560701</t>
-  </si>
-  <si>
-    <t>9780471251088</t>
-  </si>
-  <si>
-    <t>9780495569404</t>
-  </si>
-  <si>
-    <t>9780495601333</t>
-  </si>
-  <si>
-    <t>9780495601883</t>
-  </si>
-  <si>
-    <t>9780495802051</t>
-  </si>
-  <si>
-    <t>9780495903369</t>
-  </si>
-  <si>
-    <t>9780495905530</t>
-  </si>
-  <si>
-    <t>9780538478977</t>
-  </si>
-  <si>
-    <t>9780538735391</t>
-  </si>
-  <si>
-    <t>9780538738040</t>
-  </si>
-  <si>
-    <t>9780538738217</t>
-  </si>
-  <si>
-    <t>9780538738415</t>
-  </si>
-  <si>
-    <t>9780538741347</t>
-  </si>
-  <si>
-    <t>9780538798082</t>
-  </si>
-  <si>
-    <t>9781111130305</t>
-  </si>
-  <si>
-    <t>9781111343620</t>
-  </si>
-  <si>
-    <t>9781111349530</t>
-  </si>
-  <si>
-    <t>9781111529505</t>
-  </si>
-  <si>
-    <t>9781111543556</t>
-  </si>
-  <si>
-    <t>9781111726201</t>
-  </si>
-  <si>
-    <t>9781111821753</t>
-  </si>
-  <si>
-    <t>9781111822217</t>
-  </si>
-  <si>
-    <t>9781111826116</t>
-  </si>
-  <si>
-    <t>9781111826697</t>
-  </si>
-  <si>
-    <t>9781111834487</t>
-  </si>
-  <si>
-    <t>9781111836986</t>
-  </si>
-  <si>
-    <t>9781111841935</t>
-  </si>
-  <si>
-    <t>9781111970611</t>
-  </si>
-  <si>
-    <t>9781118133576</t>
-  </si>
-  <si>
-    <t>9781118324059</t>
-  </si>
-  <si>
-    <t>9781119941880</t>
-  </si>
-  <si>
-    <t>9781133016656</t>
-  </si>
-  <si>
-    <t>9781133188322</t>
-  </si>
-  <si>
-    <t>9781133191193</t>
-  </si>
-  <si>
-    <t>9781133308911</t>
-  </si>
-  <si>
-    <t>9781133526858</t>
-  </si>
-  <si>
-    <t>9781133594987</t>
-  </si>
-  <si>
-    <t>9781133604518</t>
-  </si>
-  <si>
-    <t>9781133691662</t>
-  </si>
-  <si>
-    <t>9781285077055</t>
-  </si>
-  <si>
-    <t>9781285091860</t>
-  </si>
-  <si>
-    <t>9781285164724</t>
-  </si>
-  <si>
-    <t>9781285173221</t>
-  </si>
-  <si>
-    <t>9781285180984</t>
-  </si>
-  <si>
-    <t>9781285187556</t>
-  </si>
-  <si>
-    <t>9781285194325</t>
-  </si>
-  <si>
-    <t>9781285431642</t>
-  </si>
-  <si>
-    <t>9781285434544</t>
-  </si>
-  <si>
-    <t>9781285445588</t>
-  </si>
-  <si>
-    <t>9781285451374</t>
-  </si>
-  <si>
-    <t>9781285775296</t>
-  </si>
-  <si>
-    <t>9781285836454</t>
-  </si>
-  <si>
-    <t>9781285860398</t>
-  </si>
-  <si>
-    <t>9781285870298</t>
-  </si>
-  <si>
-    <t>9781305091924</t>
-  </si>
-  <si>
-    <t>9781305094550</t>
-  </si>
-  <si>
-    <t>9781305253285</t>
-  </si>
-  <si>
-    <t>9781305254855</t>
-  </si>
-  <si>
-    <t>9781305263727</t>
-  </si>
-  <si>
-    <t>9781305397477</t>
-  </si>
-  <si>
-    <t>9781305401648</t>
-  </si>
-  <si>
-    <t>9781305632004</t>
-  </si>
-  <si>
-    <t>9781305652545</t>
-  </si>
-  <si>
-    <t>9781305657458</t>
-  </si>
-  <si>
-    <t>9781305657465</t>
-  </si>
-  <si>
-    <t>9781305659582</t>
-  </si>
-  <si>
-    <t>9781305660625</t>
-  </si>
-  <si>
-    <t>9781305661653</t>
-  </si>
-  <si>
-    <t>9781305663183</t>
-  </si>
-  <si>
-    <t>9781305663626</t>
-  </si>
-  <si>
-    <t>9781305949706</t>
-  </si>
-  <si>
-    <t>9781305970953</t>
-  </si>
-  <si>
-    <t>9781305971776</t>
-  </si>
-  <si>
-    <t>9781337093347</t>
-  </si>
-  <si>
-    <t>9781337099974</t>
-  </si>
-  <si>
-    <t>9781337101929</t>
-  </si>
-  <si>
-    <t>9781337568784</t>
-  </si>
-  <si>
-    <t>9781418073893</t>
-  </si>
-  <si>
-    <t>9781429278416</t>
-  </si>
-  <si>
-    <t>9781435458956</t>
-  </si>
-  <si>
-    <t>9781435482098</t>
-  </si>
-  <si>
-    <t>9781435483491</t>
-  </si>
-  <si>
-    <t>9781435483507</t>
-  </si>
-  <si>
-    <t>9781435483514</t>
-  </si>
-  <si>
-    <t>9781435483521</t>
-  </si>
-  <si>
-    <t>9781435483538</t>
-  </si>
-  <si>
-    <t>9781439047026</t>
-  </si>
-  <si>
-    <t>9781439084120</t>
-  </si>
-  <si>
-    <t>9781464143878</t>
-  </si>
-  <si>
-    <t>9781464182891</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>9780070019713</t>
+  </si>
+  <si>
+    <t>9780071455459</t>
+  </si>
+  <si>
+    <t>9780071494373</t>
+  </si>
+  <si>
+    <t>9780071549899</t>
+  </si>
+  <si>
+    <t>9780072360585</t>
+  </si>
+  <si>
+    <t>9780072464771</t>
+  </si>
+  <si>
+    <t>9780072521788</t>
+  </si>
+  <si>
+    <t>9780072903317</t>
+  </si>
+  <si>
+    <t>9780072917963</t>
+  </si>
+  <si>
+    <t>9780072963786</t>
+  </si>
+  <si>
+    <t>9780072965544</t>
+  </si>
+  <si>
+    <t>9780073137940</t>
+  </si>
+  <si>
+    <t>9780073292380</t>
+  </si>
+  <si>
+    <t>9780073318226</t>
+  </si>
+  <si>
+    <t>9780073330495</t>
+  </si>
+  <si>
+    <t>9780073330501</t>
+  </si>
+  <si>
+    <t>9780073369297</t>
+  </si>
+  <si>
+    <t>9780073369358</t>
+  </si>
+  <si>
+    <t>9780073373775</t>
+  </si>
+  <si>
+    <t>9780073373812</t>
+  </si>
+  <si>
+    <t>9780073373836</t>
+  </si>
+  <si>
+    <t>9780073373843</t>
+  </si>
+  <si>
+    <t>9780073373850</t>
+  </si>
+  <si>
+    <t>9780073373874</t>
+  </si>
+  <si>
+    <t>9780073373881</t>
+  </si>
+  <si>
+    <t>9780073374598</t>
+  </si>
+  <si>
+    <t>9780073374949</t>
+  </si>
+  <si>
+    <t>9780073375090</t>
+  </si>
+  <si>
+    <t>9780073375137</t>
+  </si>
+  <si>
+    <t>9780073375397</t>
+  </si>
+  <si>
+    <t>9780073375854</t>
+  </si>
+  <si>
+    <t>9780073376851</t>
+  </si>
+  <si>
+    <t>9780073377292</t>
+  </si>
+  <si>
+    <t>9780073377551</t>
+  </si>
+  <si>
+    <t>9780073378282</t>
+  </si>
+  <si>
+    <t>9780073378664</t>
+  </si>
+  <si>
+    <t>9780073378947</t>
+  </si>
+  <si>
+    <t>9780073379159</t>
+  </si>
+  <si>
+    <t>9780073379272</t>
+  </si>
+  <si>
+    <t>9780073379296</t>
+  </si>
+  <si>
+    <t>9780073379302</t>
+  </si>
+  <si>
+    <t>9780073379319</t>
+  </si>
+  <si>
+    <t>9780073380315</t>
+  </si>
+  <si>
+    <t>9780073382227</t>
+  </si>
+  <si>
+    <t>9780073383095</t>
+  </si>
+  <si>
+    <t>9780073383118</t>
+  </si>
+  <si>
+    <t>9780073383385</t>
+  </si>
+  <si>
+    <t>9780073384269</t>
+  </si>
+  <si>
+    <t>9780073384276</t>
+  </si>
+  <si>
+    <t>9780073384344</t>
+  </si>
+  <si>
+    <t>9780073384351</t>
+  </si>
+  <si>
+    <t>9780073384382</t>
+  </si>
+  <si>
+    <t>9780073384399</t>
+  </si>
+  <si>
+    <t>9780073384412</t>
+  </si>
+  <si>
+    <t>9780073384429</t>
+  </si>
+  <si>
+    <t>9780073384436</t>
+  </si>
+  <si>
+    <t>9780073384443</t>
+  </si>
+  <si>
+    <t>9780073384450</t>
+  </si>
+  <si>
+    <t>9780073384467</t>
+  </si>
+  <si>
+    <t>9780073384474</t>
+  </si>
+  <si>
+    <t>9780073384535</t>
+  </si>
+  <si>
+    <t>9780073384542</t>
+  </si>
+  <si>
+    <t>9780073384573</t>
+  </si>
+  <si>
+    <t>9780073385211</t>
+  </si>
+  <si>
+    <t>9780073385259</t>
+  </si>
+  <si>
+    <t>9780073385297</t>
+  </si>
+  <si>
+    <t>9780073385396</t>
+  </si>
+  <si>
+    <t>9780073385457</t>
+  </si>
+  <si>
+    <t>9780073385549</t>
+  </si>
+  <si>
+    <t>9780073385617</t>
+  </si>
+  <si>
+    <t>9780073385631</t>
+  </si>
+  <si>
+    <t>9780073385914</t>
+  </si>
+  <si>
+    <t>9780073386133</t>
+  </si>
+  <si>
+    <t>9780073386256</t>
+  </si>
+  <si>
+    <t>9780073386263</t>
+  </si>
+  <si>
+    <t>9780073386348</t>
+  </si>
+  <si>
+    <t>9780073386355</t>
+  </si>
+  <si>
+    <t>9780073386430</t>
+  </si>
+  <si>
+    <t>9780073386454</t>
+  </si>
+  <si>
+    <t>9780073386461</t>
+  </si>
+  <si>
+    <t>9780073386478</t>
+  </si>
+  <si>
+    <t>9780073397924</t>
+  </si>
+  <si>
+    <t>9780073397962</t>
+  </si>
+  <si>
+    <t>9780073398006</t>
+  </si>
+  <si>
+    <t>9780073398068</t>
+  </si>
+  <si>
+    <t>9780073398167</t>
+  </si>
+  <si>
+    <t>9780073398174</t>
+  </si>
+  <si>
+    <t>9780073398181</t>
+  </si>
+  <si>
+    <t>9780073398204</t>
+  </si>
+  <si>
+    <t>9780073398235</t>
+  </si>
+  <si>
+    <t>9780073398242</t>
+  </si>
+  <si>
+    <t>9780073398273</t>
+  </si>
+  <si>
+    <t>9780073399652</t>
+  </si>
+  <si>
+    <t>9780073401287</t>
+  </si>
+  <si>
+    <t>9780073401317</t>
+  </si>
+  <si>
+    <t>9780073401331</t>
+  </si>
+  <si>
+    <t>9780073401362</t>
+  </si>
+  <si>
+    <t>9780073402116</t>
+  </si>
+  <si>
+    <t>9780073402123</t>
+  </si>
+  <si>
+    <t>9780073402147</t>
   </si>
 </sst>
 </file>
@@ -743,15 +650,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A131"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1254,161 +1161,6 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/testdata/IsbnForNotFound.xlsx
+++ b/src/testdata/IsbnForNotFound.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisnenko\IdeaProjects\automation_2.0\src\testdata\"/>
@@ -24,306 +24,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>9780070019713</t>
-  </si>
-  <si>
-    <t>9780071455459</t>
-  </si>
-  <si>
-    <t>9780071494373</t>
-  </si>
-  <si>
-    <t>9780071549899</t>
-  </si>
-  <si>
-    <t>9780072360585</t>
-  </si>
-  <si>
-    <t>9780072464771</t>
-  </si>
-  <si>
-    <t>9780072521788</t>
-  </si>
-  <si>
-    <t>9780072903317</t>
-  </si>
-  <si>
-    <t>9780072917963</t>
-  </si>
-  <si>
-    <t>9780072963786</t>
-  </si>
-  <si>
-    <t>9780072965544</t>
-  </si>
-  <si>
-    <t>9780073137940</t>
-  </si>
-  <si>
-    <t>9780073292380</t>
-  </si>
-  <si>
-    <t>9780073318226</t>
-  </si>
-  <si>
-    <t>9780073330495</t>
-  </si>
-  <si>
-    <t>9780073330501</t>
-  </si>
-  <si>
-    <t>9780073369297</t>
-  </si>
-  <si>
-    <t>9780073369358</t>
-  </si>
-  <si>
-    <t>9780073373775</t>
-  </si>
-  <si>
-    <t>9780073373812</t>
-  </si>
-  <si>
-    <t>9780073373836</t>
-  </si>
-  <si>
-    <t>9780073373843</t>
-  </si>
-  <si>
-    <t>9780073373850</t>
-  </si>
-  <si>
-    <t>9780073373874</t>
-  </si>
-  <si>
-    <t>9780073373881</t>
-  </si>
-  <si>
-    <t>9780073374598</t>
-  </si>
-  <si>
-    <t>9780073374949</t>
-  </si>
-  <si>
-    <t>9780073375090</t>
-  </si>
-  <si>
-    <t>9780073375137</t>
-  </si>
-  <si>
-    <t>9780073375397</t>
-  </si>
-  <si>
-    <t>9780073375854</t>
-  </si>
-  <si>
-    <t>9780073376851</t>
-  </si>
-  <si>
-    <t>9780073377292</t>
-  </si>
-  <si>
-    <t>9780073377551</t>
-  </si>
-  <si>
-    <t>9780073378282</t>
-  </si>
-  <si>
-    <t>9780073378664</t>
-  </si>
-  <si>
-    <t>9780073378947</t>
-  </si>
-  <si>
-    <t>9780073379159</t>
-  </si>
-  <si>
-    <t>9780073379272</t>
-  </si>
-  <si>
-    <t>9780073379296</t>
-  </si>
-  <si>
-    <t>9780073379302</t>
-  </si>
-  <si>
-    <t>9780073379319</t>
-  </si>
-  <si>
-    <t>9780073380315</t>
-  </si>
-  <si>
-    <t>9780073382227</t>
-  </si>
-  <si>
-    <t>9780073383095</t>
-  </si>
-  <si>
-    <t>9780073383118</t>
-  </si>
-  <si>
-    <t>9780073383385</t>
-  </si>
-  <si>
-    <t>9780073384269</t>
-  </si>
-  <si>
-    <t>9780073384276</t>
-  </si>
-  <si>
-    <t>9780073384344</t>
-  </si>
-  <si>
-    <t>9780073384351</t>
-  </si>
-  <si>
-    <t>9780073384382</t>
-  </si>
-  <si>
-    <t>9780073384399</t>
-  </si>
-  <si>
-    <t>9780073384412</t>
-  </si>
-  <si>
-    <t>9780073384429</t>
-  </si>
-  <si>
-    <t>9780073384436</t>
-  </si>
-  <si>
-    <t>9780073384443</t>
-  </si>
-  <si>
-    <t>9780073384450</t>
-  </si>
-  <si>
-    <t>9780073384467</t>
-  </si>
-  <si>
-    <t>9780073384474</t>
-  </si>
-  <si>
-    <t>9780073384535</t>
-  </si>
-  <si>
-    <t>9780073384542</t>
-  </si>
-  <si>
-    <t>9780073384573</t>
-  </si>
-  <si>
-    <t>9780073385211</t>
-  </si>
-  <si>
-    <t>9780073385259</t>
-  </si>
-  <si>
-    <t>9780073385297</t>
-  </si>
-  <si>
-    <t>9780073385396</t>
-  </si>
-  <si>
-    <t>9780073385457</t>
-  </si>
-  <si>
-    <t>9780073385549</t>
-  </si>
-  <si>
-    <t>9780073385617</t>
-  </si>
-  <si>
-    <t>9780073385631</t>
-  </si>
-  <si>
-    <t>9780073385914</t>
-  </si>
-  <si>
-    <t>9780073386133</t>
-  </si>
-  <si>
-    <t>9780073386256</t>
-  </si>
-  <si>
-    <t>9780073386263</t>
-  </si>
-  <si>
-    <t>9780073386348</t>
-  </si>
-  <si>
-    <t>9780073386355</t>
-  </si>
-  <si>
-    <t>9780073386430</t>
-  </si>
-  <si>
-    <t>9780073386454</t>
-  </si>
-  <si>
-    <t>9780073386461</t>
-  </si>
-  <si>
-    <t>9780073386478</t>
-  </si>
-  <si>
-    <t>9780073397924</t>
-  </si>
-  <si>
-    <t>9780073397962</t>
-  </si>
-  <si>
-    <t>9780073398006</t>
-  </si>
-  <si>
-    <t>9780073398068</t>
-  </si>
-  <si>
-    <t>9780073398167</t>
-  </si>
-  <si>
-    <t>9780073398174</t>
-  </si>
-  <si>
-    <t>9780073398181</t>
-  </si>
-  <si>
-    <t>9780073398204</t>
-  </si>
-  <si>
-    <t>9780073398235</t>
-  </si>
-  <si>
-    <t>9780073398242</t>
-  </si>
-  <si>
-    <t>9780073398273</t>
-  </si>
-  <si>
-    <t>9780073399652</t>
-  </si>
-  <si>
-    <t>9780073401287</t>
-  </si>
-  <si>
-    <t>9780073401317</t>
-  </si>
-  <si>
-    <t>9780073401331</t>
-  </si>
-  <si>
-    <t>9780073401362</t>
-  </si>
-  <si>
-    <t>9780073402116</t>
-  </si>
-  <si>
-    <t>9780073402123</t>
-  </si>
-  <si>
-    <t>9780073402147</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>9781111738631</t>
+  </si>
+  <si>
+    <t>9781133509400</t>
+  </si>
+  <si>
+    <t>9781133945550</t>
+  </si>
+  <si>
+    <t>9781285172804</t>
+  </si>
+  <si>
+    <t>9781285382227</t>
+  </si>
+  <si>
+    <t>9781285400594</t>
+  </si>
+  <si>
+    <t>9781285415543</t>
+  </si>
+  <si>
+    <t>9781285418742</t>
+  </si>
+  <si>
+    <t>9781285733340</t>
+  </si>
+  <si>
+    <t>9781285853864</t>
+  </si>
+  <si>
+    <t>9781305263062</t>
+  </si>
+  <si>
+    <t>9781305410411</t>
+  </si>
+  <si>
+    <t>9781305537453</t>
+  </si>
+  <si>
+    <t>9781305627789</t>
+  </si>
+  <si>
+    <t>9781305661011</t>
+  </si>
+  <si>
+    <t>9781305665293</t>
+  </si>
+  <si>
+    <t>9781305886537</t>
+  </si>
+  <si>
+    <t>9781305969223</t>
+  </si>
+  <si>
+    <t>9781337093132</t>
+  </si>
+  <si>
+    <t>9781337117081</t>
+  </si>
+  <si>
+    <t>9781337345842</t>
+  </si>
+  <si>
+    <t>9781337407298</t>
+  </si>
+  <si>
+    <t>9781337515269</t>
+  </si>
+  <si>
+    <t>9781337520386</t>
+  </si>
+  <si>
+    <t>9781337629249</t>
+  </si>
+  <si>
+    <t>9781428291782</t>
+  </si>
+  <si>
+    <t>9781435459878</t>
+  </si>
+  <si>
+    <t>9781111806057</t>
+  </si>
+  <si>
+    <t>9781111808105</t>
+  </si>
+  <si>
+    <t>9781305156135</t>
+  </si>
+  <si>
+    <t>9781305178441</t>
+  </si>
+  <si>
+    <t>9781305537637</t>
+  </si>
+  <si>
+    <t>9781305944657</t>
+  </si>
+  <si>
+    <t>9781337094795</t>
+  </si>
+  <si>
+    <t>9781337274722</t>
+  </si>
+  <si>
+    <t>9781337393089</t>
+  </si>
+  <si>
+    <t>9781337403566</t>
+  </si>
+  <si>
+    <t>9781337404549</t>
+  </si>
+  <si>
+    <t>9781337619073</t>
+  </si>
+  <si>
+    <t>9781337621342</t>
+  </si>
+  <si>
+    <t>9781337621557</t>
+  </si>
+  <si>
+    <t>9781337626378</t>
+  </si>
+  <si>
+    <t>9781337626422</t>
+  </si>
+  <si>
+    <t>9781337705196</t>
+  </si>
+  <si>
+    <t>9781337763639</t>
+  </si>
+  <si>
+    <t>9781337764278</t>
+  </si>
+  <si>
+    <t>9781337764537</t>
+  </si>
+  <si>
+    <t>9781337764919</t>
+  </si>
+  <si>
+    <t>9781337765473</t>
+  </si>
+  <si>
+    <t>9781337765558</t>
+  </si>
+  <si>
+    <t>9781337765596</t>
+  </si>
+  <si>
+    <t>9781337766319</t>
+  </si>
+  <si>
+    <t>9781337767590</t>
+  </si>
+  <si>
+    <t>9781337768078</t>
+  </si>
+  <si>
+    <t>9781337771238</t>
+  </si>
+  <si>
+    <t>9781337775588</t>
+  </si>
+  <si>
+    <t>9781337777834</t>
+  </si>
+  <si>
+    <t>9781337899970</t>
+  </si>
+  <si>
+    <t>9781337901499</t>
+  </si>
+  <si>
+    <t>9781337903196</t>
+  </si>
+  <si>
+    <t>9781337911290</t>
   </si>
 </sst>
 </file>
@@ -650,10 +533,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A100"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A100"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -668,497 +552,302 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
